--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="9495"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14805" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Products</t>
   </si>
@@ -50,7 +50,22 @@
     <t>orderDate</t>
   </si>
   <si>
-    <t>Mouse</t>
+    <t>review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pk</t>
+  </si>
+  <si>
+    <t>unqiue</t>
+  </si>
+  <si>
+    <t>check &gt; 0</t>
+  </si>
+  <si>
+    <t>quantity &gt;= 0</t>
+  </si>
+  <si>
+    <t>Good or Excellent or Bad</t>
   </si>
 </sst>
 </file>
@@ -397,7 +412,7 @@
   <dimension ref="E3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +429,7 @@
       <c r="F4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -423,23 +438,31 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>100</v>
+      <c r="G6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
-        <v>10</v>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.25">
